--- a/BMOL2201/Practicals/Prac 1/Prac1-data-2022.xlsx
+++ b/BMOL2201/Practicals/Prac 1/Prac1-data-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2022\pracs\p1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45675414\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCAEEBB-F211-49B4-BDDB-46C0E94C3ECA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116764B0-409F-4839-BAB4-A988BCC00EFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19605" windowHeight="7650" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA for Examples (hide)" sheetId="10" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="119">
   <si>
     <t>Vol of KOH (ml)</t>
   </si>
@@ -1578,7 +1578,19 @@
     </r>
   </si>
   <si>
-    <t>2V=</t>
+    <t>Timothy Smith</t>
+  </si>
+  <si>
+    <t>Sok Hui Lim</t>
+  </si>
+  <si>
+    <t>Julian Ugonotti</t>
+  </si>
+  <si>
+    <t>Unknown 1</t>
+  </si>
+  <si>
+    <t>V=</t>
   </si>
 </sst>
 </file>
@@ -3935,8 +3947,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>plot title here</a:t>
+              <a:t>pH</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Volume of KOH</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4183,6 +4200,147 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.94</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.15</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.34</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.47</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.73</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.88</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.57</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.76</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.94</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.06</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4232,7 +4390,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>x-axis label here</a:t>
+                  <a:t>Volume of KOH</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4310,7 +4468,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>y-axis label here</a:t>
+                  <a:t>pH</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4996,7 +5154,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>plot title here</a:t>
+              <a:t>pH vs volume of KOH</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5341,6 +5499,240 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.57</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.81</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.01</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.39</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.52</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.06</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.46</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.67</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.79</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.89</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.08</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.31</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.51</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.62</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.72</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.84</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.96</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.26</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.32</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12.39</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.43</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.52</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12.56</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12.67</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.72</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.74</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.77</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.82</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12.86</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.87</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.89</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12.96</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12.97</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>12.98</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>12.99</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5567,6 +5959,147 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.94</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.15</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.34</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.47</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.73</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.88</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.57</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.76</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.94</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.06</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5616,7 +6149,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>x-axis label here</a:t>
+                  <a:t>Volume of KOH</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5702,7 +6235,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>y-axis label here</a:t>
+                  <a:t>pH</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8085,16 +8618,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>504823</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>591414</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>28573</xdr:rowOff>
+      <xdr:rowOff>63209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>591415</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>110835</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8111,8 +8644,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10220323" y="3143248"/>
-          <a:ext cx="1" cy="10382251"/>
+          <a:off x="10913050" y="3232436"/>
+          <a:ext cx="1" cy="10299990"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8134,21 +8667,28 @@
           </a:ext>
         </a:extLst>
       </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>322984</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>412292</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>325701</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8165,8 +8705,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8905875" y="3362324"/>
-          <a:ext cx="2717" cy="10189030"/>
+          <a:off x="9432348" y="3374447"/>
+          <a:ext cx="2717" cy="10316319"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8194,14 +8734,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>31293</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:colOff>117884</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>102054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:colOff>429491</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8219,8 +8759,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7813218" y="10617654"/>
-          <a:ext cx="7626807" cy="12246"/>
+          <a:off x="8014975" y="11618645"/>
+          <a:ext cx="7585243" cy="12246"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8248,16 +8788,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>332014</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>16327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>602792</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>140153</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>344256</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>140152</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8274,8 +8814,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11525250" y="3352799"/>
-          <a:ext cx="12242" cy="10208079"/>
+          <a:off x="12524014" y="3526970"/>
+          <a:ext cx="12242" cy="10383611"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8303,15 +8843,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2719</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>138790</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>158833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>121105</xdr:rowOff>
+      <xdr:colOff>469446</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8328,8 +8868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="7784644" y="5486400"/>
-          <a:ext cx="7645856" cy="6805"/>
+          <a:off x="8044540" y="5315940"/>
+          <a:ext cx="7678513" cy="6805"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8871,15 +9411,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>524830</xdr:colOff>
+      <xdr:colOff>153355</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>194387</xdr:rowOff>
+      <xdr:rowOff>184862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>525216</xdr:colOff>
+      <xdr:colOff>153741</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>169889</xdr:rowOff>
+      <xdr:rowOff>160364</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8896,8 +9436,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10331692" y="3586453"/>
-          <a:ext cx="386" cy="10627951"/>
+          <a:off x="9659305" y="3280487"/>
+          <a:ext cx="386" cy="10433952"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8919,21 +9459,28 @@
           </a:ext>
         </a:extLst>
       </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
+      <xdr:colOff>572861</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>165230</xdr:rowOff>
+      <xdr:rowOff>174755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>545642</xdr:colOff>
+      <xdr:colOff>574217</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>140734</xdr:rowOff>
+      <xdr:rowOff>150259</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8950,8 +9497,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9126505" y="2828342"/>
-          <a:ext cx="1356" cy="10268336"/>
+          <a:off x="8859611" y="3270380"/>
+          <a:ext cx="1356" cy="10433954"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8979,15 +9526,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>31293</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>102054</xdr:rowOff>
+      <xdr:colOff>202743</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>102054</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9004,7 +9551,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="7813218" y="10427154"/>
+          <a:off x="7879893" y="12103554"/>
           <a:ext cx="7626807" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9033,16 +9580,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>262424</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>338624</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>165230</xdr:rowOff>
+      <xdr:rowOff>184280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>278942</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355142</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>169308</xdr:rowOff>
+      <xdr:rowOff>188358</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9059,8 +9606,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11293929" y="2828342"/>
-          <a:ext cx="16518" cy="10296910"/>
+          <a:off x="10454174" y="3279905"/>
+          <a:ext cx="16518" cy="10462528"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9088,14 +9635,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>59869</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>355144</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>178255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>178255</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9113,7 +9660,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7841794" y="5740855"/>
+          <a:off x="8032294" y="6521905"/>
           <a:ext cx="7588705" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9216,14 +9763,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>165229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>155122</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>133926</xdr:rowOff>
     </xdr:to>
@@ -9242,8 +9789,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="13001819" y="2828341"/>
-          <a:ext cx="2722" cy="10261529"/>
+          <a:off x="12096750" y="3260854"/>
+          <a:ext cx="2722" cy="10427147"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9265,21 +9812,28 @@
           </a:ext>
         </a:extLst>
       </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9296,7 +9850,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7839074" y="4600575"/>
+          <a:off x="7953374" y="4905375"/>
           <a:ext cx="7467601" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12757,7 +13311,7 @@
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:M15"/>
+      <selection activeCell="G21" sqref="G21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12916,7 +13470,9 @@
       </c>
       <c r="E15" s="145"/>
       <c r="F15" s="146"/>
-      <c r="G15" s="147"/>
+      <c r="G15" s="147">
+        <v>12</v>
+      </c>
       <c r="H15" s="148"/>
       <c r="I15" s="148"/>
       <c r="J15" s="148"/>
@@ -12935,7 +13491,9 @@
       </c>
       <c r="E17" s="150"/>
       <c r="F17" s="151"/>
-      <c r="G17" s="147"/>
+      <c r="G17" s="147" t="s">
+        <v>114</v>
+      </c>
       <c r="H17" s="148"/>
       <c r="I17" s="148"/>
       <c r="J17" s="148"/>
@@ -12954,7 +13512,9 @@
       </c>
       <c r="E19" s="150"/>
       <c r="F19" s="151"/>
-      <c r="G19" s="147"/>
+      <c r="G19" s="147" t="s">
+        <v>115</v>
+      </c>
       <c r="H19" s="148"/>
       <c r="I19" s="148"/>
       <c r="J19" s="148"/>
@@ -12973,7 +13533,9 @@
       </c>
       <c r="E21" s="150"/>
       <c r="F21" s="151"/>
-      <c r="G21" s="147"/>
+      <c r="G21" s="147" t="s">
+        <v>116</v>
+      </c>
       <c r="H21" s="148"/>
       <c r="I21" s="148"/>
       <c r="J21" s="148"/>
@@ -13050,9 +13612,9 @@
   </sheetPr>
   <dimension ref="A1:AA124"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13310,7 +13872,9 @@
       <c r="E16" s="49">
         <v>0</v>
       </c>
-      <c r="F16" s="113"/>
+      <c r="F16" s="113">
+        <v>1.9</v>
+      </c>
       <c r="G16" s="44"/>
       <c r="H16" s="174"/>
       <c r="I16" s="175"/>
@@ -13328,7 +13892,9 @@
         <f>E16+0.2</f>
         <v>0.2</v>
       </c>
-      <c r="F17" s="113"/>
+      <c r="F17" s="113">
+        <v>1.94</v>
+      </c>
       <c r="G17" s="44"/>
       <c r="H17" s="174"/>
       <c r="I17" s="175"/>
@@ -13346,7 +13912,9 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="F18" s="113"/>
+      <c r="F18" s="113">
+        <v>1.94</v>
+      </c>
       <c r="G18" s="44"/>
       <c r="H18" s="174"/>
       <c r="I18" s="175"/>
@@ -13364,7 +13932,9 @@
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="F19" s="113"/>
+      <c r="F19" s="113">
+        <v>1.98</v>
+      </c>
       <c r="G19" s="44"/>
       <c r="H19" s="177"/>
       <c r="I19" s="178"/>
@@ -13382,7 +13952,9 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="F20" s="113"/>
+      <c r="F20" s="113">
+        <v>2</v>
+      </c>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
@@ -13400,7 +13972,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F21" s="113"/>
+      <c r="F21" s="113">
+        <v>2.0499999999999998</v>
+      </c>
       <c r="G21" s="44"/>
       <c r="H21" s="43" t="s">
         <v>8</v>
@@ -13420,7 +13994,9 @@
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="F22" s="113"/>
+      <c r="F22" s="113">
+        <v>2.0699999999999998</v>
+      </c>
       <c r="G22" s="44"/>
       <c r="H22" s="61" t="s">
         <v>21</v>
@@ -13428,7 +14004,9 @@
       <c r="I22" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="J22" s="123"/>
+      <c r="J22" s="123">
+        <v>4.8</v>
+      </c>
       <c r="K22" s="12"/>
       <c r="L22" s="9"/>
     </row>
@@ -13442,7 +14020,9 @@
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="F23" s="113"/>
+      <c r="F23" s="113">
+        <v>2.12</v>
+      </c>
       <c r="G23" s="44"/>
       <c r="H23" s="128" t="s">
         <v>75</v>
@@ -13462,7 +14042,9 @@
         <f t="shared" si="0"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="F24" s="113"/>
+      <c r="F24" s="113">
+        <v>2.17</v>
+      </c>
       <c r="G24" s="44"/>
       <c r="H24" s="55" t="s">
         <v>4</v>
@@ -13482,7 +14064,9 @@
         <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="F25" s="113"/>
+      <c r="F25" s="113">
+        <v>2.21</v>
+      </c>
       <c r="G25" s="44"/>
       <c r="H25" s="99" t="s">
         <v>22</v>
@@ -13490,7 +14074,9 @@
       <c r="I25" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="122"/>
+      <c r="J25" s="122">
+        <v>2.4</v>
+      </c>
       <c r="K25" s="12"/>
       <c r="L25" s="9"/>
     </row>
@@ -13504,7 +14090,9 @@
         <f t="shared" si="0"/>
         <v>1.9999999999999998</v>
       </c>
-      <c r="F26" s="113"/>
+      <c r="F26" s="113">
+        <v>2.27</v>
+      </c>
       <c r="G26" s="44"/>
       <c r="H26" s="64" t="s">
         <v>3</v>
@@ -13512,7 +14100,9 @@
       <c r="I26" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="65"/>
+      <c r="J26" s="65">
+        <v>2.4</v>
+      </c>
       <c r="K26" s="12"/>
       <c r="L26" s="9"/>
     </row>
@@ -13526,7 +14116,9 @@
         <f t="shared" si="0"/>
         <v>2.1999999999999997</v>
       </c>
-      <c r="F27" s="113"/>
+      <c r="F27" s="113">
+        <v>2.3199999999999998</v>
+      </c>
       <c r="G27" s="44"/>
       <c r="H27" s="63"/>
       <c r="I27" s="62"/>
@@ -13544,7 +14136,9 @@
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="F28" s="113"/>
+      <c r="F28" s="113">
+        <v>2.39</v>
+      </c>
       <c r="G28" s="44"/>
       <c r="H28" s="55" t="s">
         <v>5</v>
@@ -13564,7 +14158,9 @@
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
-      <c r="F29" s="113"/>
+      <c r="F29" s="113">
+        <v>2.4500000000000002</v>
+      </c>
       <c r="G29" s="44"/>
       <c r="H29" s="100" t="s">
         <v>23</v>
@@ -13572,7 +14168,9 @@
       <c r="I29" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="119"/>
+      <c r="J29" s="119">
+        <v>7.2</v>
+      </c>
       <c r="K29" s="12"/>
       <c r="L29" s="9"/>
     </row>
@@ -13586,7 +14184,9 @@
         <f t="shared" si="0"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="F30" s="113"/>
+      <c r="F30" s="113">
+        <v>2.6</v>
+      </c>
       <c r="G30" s="44"/>
       <c r="H30" s="66" t="s">
         <v>7</v>
@@ -13594,7 +14194,9 @@
       <c r="I30" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="J30" s="65"/>
+      <c r="J30" s="65">
+        <v>10.3</v>
+      </c>
       <c r="K30" s="12"/>
       <c r="L30" s="9"/>
     </row>
@@ -13608,7 +14210,9 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="F31" s="113"/>
+      <c r="F31" s="113">
+        <v>2.68</v>
+      </c>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
@@ -13626,7 +14230,9 @@
         <f t="shared" si="0"/>
         <v>3.2000000000000006</v>
       </c>
-      <c r="F32" s="113"/>
+      <c r="F32" s="113">
+        <v>2.74</v>
+      </c>
       <c r="G32" s="44"/>
       <c r="H32" s="171" t="s">
         <v>61</v>
@@ -13646,7 +14252,9 @@
         <f t="shared" si="0"/>
         <v>3.4000000000000008</v>
       </c>
-      <c r="F33" s="113"/>
+      <c r="F33" s="113">
+        <v>2.82</v>
+      </c>
       <c r="G33" s="44"/>
       <c r="H33" s="174"/>
       <c r="I33" s="175"/>
@@ -13664,7 +14272,9 @@
         <f t="shared" si="0"/>
         <v>3.600000000000001</v>
       </c>
-      <c r="F34" s="113"/>
+      <c r="F34" s="113">
+        <v>2.91</v>
+      </c>
       <c r="G34" s="44"/>
       <c r="H34" s="174"/>
       <c r="I34" s="175"/>
@@ -13682,7 +14292,9 @@
         <f t="shared" si="0"/>
         <v>3.8000000000000012</v>
       </c>
-      <c r="F35" s="113"/>
+      <c r="F35" s="113">
+        <v>3.04</v>
+      </c>
       <c r="G35" s="44"/>
       <c r="H35" s="177"/>
       <c r="I35" s="178"/>
@@ -13700,7 +14312,9 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="F36" s="113"/>
+      <c r="F36" s="113">
+        <v>3.19</v>
+      </c>
       <c r="G36" s="44"/>
       <c r="H36" s="51"/>
       <c r="I36" s="52"/>
@@ -13718,7 +14332,9 @@
         <f t="shared" si="0"/>
         <v>4.2000000000000011</v>
       </c>
-      <c r="F37" s="113"/>
+      <c r="F37" s="113">
+        <v>3.4</v>
+      </c>
       <c r="G37" s="44"/>
       <c r="H37" s="55" t="s">
         <v>94</v>
@@ -13738,9 +14354,14 @@
         <f t="shared" si="0"/>
         <v>4.4000000000000012</v>
       </c>
-      <c r="F38" s="113"/>
+      <c r="F38" s="113">
+        <v>3.69</v>
+      </c>
       <c r="G38" s="44"/>
-      <c r="H38" s="180"/>
+      <c r="H38" s="180">
+        <f>(J30+J26)/2</f>
+        <v>6.3500000000000005</v>
+      </c>
       <c r="I38" s="181"/>
       <c r="J38" s="181"/>
       <c r="K38" s="12"/>
@@ -13756,7 +14377,9 @@
         <f t="shared" si="0"/>
         <v>4.6000000000000014</v>
       </c>
-      <c r="F39" s="113"/>
+      <c r="F39" s="113">
+        <v>4.72</v>
+      </c>
       <c r="G39" s="44"/>
       <c r="H39" s="51"/>
       <c r="I39" s="44"/>
@@ -13774,7 +14397,9 @@
         <f t="shared" si="0"/>
         <v>4.8000000000000016</v>
       </c>
-      <c r="F40" s="113"/>
+      <c r="F40" s="113">
+        <v>8.36</v>
+      </c>
       <c r="G40" s="44"/>
       <c r="H40" s="51"/>
       <c r="I40" s="5"/>
@@ -13792,7 +14417,9 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000018</v>
       </c>
-      <c r="F41" s="113"/>
+      <c r="F41" s="113">
+        <v>8.94</v>
+      </c>
       <c r="G41" s="44"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -13810,7 +14437,9 @@
         <f t="shared" si="0"/>
         <v>5.200000000000002</v>
       </c>
-      <c r="F42" s="113"/>
+      <c r="F42" s="113">
+        <v>9.2100000000000009</v>
+      </c>
       <c r="G42" s="44"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -13828,7 +14457,9 @@
         <f t="shared" si="0"/>
         <v>5.4000000000000021</v>
       </c>
-      <c r="F43" s="113"/>
+      <c r="F43" s="113">
+        <v>9.3800000000000008</v>
+      </c>
       <c r="G43" s="44"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -13846,7 +14477,9 @@
         <f t="shared" si="0"/>
         <v>5.6000000000000023</v>
       </c>
-      <c r="F44" s="113"/>
+      <c r="F44" s="113">
+        <v>9.5299999999999994</v>
+      </c>
       <c r="G44" s="44"/>
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
@@ -13864,7 +14497,9 @@
         <f t="shared" si="0"/>
         <v>5.8000000000000025</v>
       </c>
-      <c r="F45" s="113"/>
+      <c r="F45" s="113">
+        <v>9.68</v>
+      </c>
       <c r="G45" s="44"/>
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
@@ -13882,7 +14517,9 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000027</v>
       </c>
-      <c r="F46" s="113"/>
+      <c r="F46" s="113">
+        <v>9.76</v>
+      </c>
       <c r="G46" s="44"/>
       <c r="H46" s="44"/>
       <c r="I46" s="44"/>
@@ -13900,7 +14537,9 @@
         <f t="shared" si="0"/>
         <v>6.2000000000000028</v>
       </c>
-      <c r="F47" s="113"/>
+      <c r="F47" s="113">
+        <v>9.8800000000000008</v>
+      </c>
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
       <c r="I47" s="44"/>
@@ -13918,7 +14557,9 @@
         <f t="shared" si="0"/>
         <v>6.400000000000003</v>
       </c>
-      <c r="F48" s="113"/>
+      <c r="F48" s="113">
+        <v>9.9600000000000009</v>
+      </c>
       <c r="G48" s="44"/>
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
@@ -13936,7 +14577,9 @@
         <f t="shared" si="0"/>
         <v>6.6000000000000032</v>
       </c>
-      <c r="F49" s="113"/>
+      <c r="F49" s="113">
+        <v>10.050000000000001</v>
+      </c>
       <c r="G49" s="44"/>
       <c r="H49" s="44"/>
       <c r="I49" s="44"/>
@@ -13954,7 +14597,9 @@
         <f t="shared" si="0"/>
         <v>6.8000000000000034</v>
       </c>
-      <c r="F50" s="113"/>
+      <c r="F50" s="113">
+        <v>10.15</v>
+      </c>
       <c r="G50" s="44"/>
       <c r="H50" s="44"/>
       <c r="I50" s="44"/>
@@ -13972,7 +14617,9 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000036</v>
       </c>
-      <c r="F51" s="53"/>
+      <c r="F51" s="53">
+        <v>10.24</v>
+      </c>
       <c r="G51" s="44"/>
       <c r="H51" s="44"/>
       <c r="I51" s="44"/>
@@ -13990,7 +14637,9 @@
         <f t="shared" si="0"/>
         <v>7.2000000000000037</v>
       </c>
-      <c r="F52" s="53"/>
+      <c r="F52" s="53">
+        <v>10.34</v>
+      </c>
       <c r="G52" s="44"/>
       <c r="H52" s="44"/>
       <c r="I52" s="44"/>
@@ -14008,7 +14657,9 @@
         <f t="shared" si="0"/>
         <v>7.4000000000000039</v>
       </c>
-      <c r="F53" s="53"/>
+      <c r="F53" s="53">
+        <v>10.47</v>
+      </c>
       <c r="G53" s="44"/>
       <c r="H53" s="44"/>
       <c r="I53" s="44"/>
@@ -14026,7 +14677,9 @@
         <f t="shared" si="0"/>
         <v>7.6000000000000041</v>
       </c>
-      <c r="F54" s="53"/>
+      <c r="F54" s="53">
+        <v>10.59</v>
+      </c>
       <c r="G54" s="44"/>
       <c r="H54" s="44"/>
       <c r="I54" s="44"/>
@@ -14044,7 +14697,9 @@
         <f t="shared" si="0"/>
         <v>7.8000000000000043</v>
       </c>
-      <c r="F55" s="53"/>
+      <c r="F55" s="53">
+        <v>10.73</v>
+      </c>
       <c r="G55" s="44"/>
       <c r="H55" s="44"/>
       <c r="I55" s="44"/>
@@ -14062,7 +14717,9 @@
         <f t="shared" si="0"/>
         <v>8.0000000000000036</v>
       </c>
-      <c r="F56" s="53"/>
+      <c r="F56" s="53">
+        <v>10.88</v>
+      </c>
       <c r="G56" s="44"/>
       <c r="H56" s="44"/>
       <c r="I56" s="44"/>
@@ -14080,7 +14737,9 @@
         <f t="shared" si="0"/>
         <v>8.2000000000000028</v>
       </c>
-      <c r="F57" s="53"/>
+      <c r="F57" s="53">
+        <v>11.07</v>
+      </c>
       <c r="G57" s="44"/>
       <c r="H57" s="44"/>
       <c r="I57" s="44"/>
@@ -14098,7 +14757,9 @@
         <f t="shared" si="0"/>
         <v>8.4000000000000021</v>
       </c>
-      <c r="F58" s="53"/>
+      <c r="F58" s="53">
+        <v>11.35</v>
+      </c>
       <c r="G58" s="44"/>
       <c r="H58" s="44"/>
       <c r="I58" s="44"/>
@@ -14116,7 +14777,9 @@
         <f t="shared" si="0"/>
         <v>8.6000000000000014</v>
       </c>
-      <c r="F59" s="53"/>
+      <c r="F59" s="53">
+        <v>11.57</v>
+      </c>
       <c r="G59" s="44"/>
       <c r="H59" s="44"/>
       <c r="I59" s="44"/>
@@ -14134,7 +14797,9 @@
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="F60" s="53"/>
+      <c r="F60" s="53">
+        <v>11.76</v>
+      </c>
       <c r="G60" s="44"/>
       <c r="H60" s="44"/>
       <c r="I60" s="44"/>
@@ -14152,7 +14817,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F61" s="53"/>
+      <c r="F61" s="53">
+        <v>11.94</v>
+      </c>
       <c r="G61" s="44"/>
       <c r="H61" s="44"/>
       <c r="I61" s="44"/>
@@ -14170,7 +14837,9 @@
         <f t="shared" si="0"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="F62" s="53"/>
+      <c r="F62" s="53">
+        <v>12.06</v>
+      </c>
       <c r="G62" s="44"/>
       <c r="H62" s="44"/>
       <c r="I62" s="44"/>
@@ -14807,8 +15476,8 @@
   <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="10" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15109,7 +15778,9 @@
       <c r="I12" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="116"/>
+      <c r="J12" s="116" t="s">
+        <v>117</v>
+      </c>
       <c r="K12" s="12"/>
       <c r="L12" s="55" t="s">
         <v>51</v>
@@ -15178,7 +15849,9 @@
       <c r="E16" s="86">
         <v>0</v>
       </c>
-      <c r="F16" s="113"/>
+      <c r="F16" s="113">
+        <v>1.71</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="174"/>
       <c r="I16" s="175"/>
@@ -15197,7 +15870,9 @@
       <c r="E17" s="86">
         <v>0.2</v>
       </c>
-      <c r="F17" s="113"/>
+      <c r="F17" s="113">
+        <v>1.72</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="174"/>
       <c r="I17" s="175"/>
@@ -15217,7 +15892,9 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="F18" s="113"/>
+      <c r="F18" s="113">
+        <v>1.77</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="174"/>
       <c r="I18" s="175"/>
@@ -15237,7 +15914,9 @@
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="F19" s="113"/>
+      <c r="F19" s="113">
+        <v>1.82</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="174"/>
       <c r="I19" s="175"/>
@@ -15257,7 +15936,9 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="F20" s="113"/>
+      <c r="F20" s="113">
+        <v>1.84</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="177"/>
       <c r="I20" s="178"/>
@@ -15277,7 +15958,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F21" s="113"/>
+      <c r="F21" s="113">
+        <v>1.9</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="78"/>
       <c r="I21" s="78"/>
@@ -15297,7 +15980,9 @@
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="F22" s="113"/>
+      <c r="F22" s="113">
+        <v>1.95</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="55" t="s">
         <v>8</v>
@@ -15321,15 +16006,19 @@
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="F23" s="113"/>
+      <c r="F23" s="113">
+        <v>2</v>
+      </c>
       <c r="G23" s="9"/>
       <c r="H23" s="61" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="J23" s="120"/>
+        <v>118</v>
+      </c>
+      <c r="J23" s="120">
+        <v>3.8</v>
+      </c>
       <c r="K23" s="12"/>
       <c r="L23" s="9"/>
     </row>
@@ -15345,7 +16034,9 @@
         <f t="shared" si="0"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="F24" s="113"/>
+      <c r="F24" s="113">
+        <v>2.0499999999999998</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="118" t="s">
         <v>77</v>
@@ -15368,12 +16059,16 @@
         <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="F25" s="113"/>
+      <c r="F25" s="113">
+        <v>2.11</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="I25" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="121"/>
+      <c r="J25" s="121">
+        <v>3.8</v>
+      </c>
       <c r="K25" s="12"/>
       <c r="L25" s="9"/>
     </row>
@@ -15389,7 +16084,9 @@
         <f t="shared" si="0"/>
         <v>1.9999999999999998</v>
       </c>
-      <c r="F26" s="113"/>
+      <c r="F26" s="113">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="G26" s="9"/>
       <c r="H26" s="81"/>
       <c r="I26" s="94"/>
@@ -15409,7 +16106,9 @@
         <f t="shared" si="0"/>
         <v>2.1999999999999997</v>
       </c>
-      <c r="F27" s="113"/>
+      <c r="F27" s="113">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="G27" s="9"/>
       <c r="H27" s="55" t="s">
         <v>4</v>
@@ -15431,7 +16130,9 @@
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="F28" s="113"/>
+      <c r="F28" s="113">
+        <v>2.34</v>
+      </c>
       <c r="G28" s="9"/>
       <c r="H28" s="99" t="s">
         <v>22</v>
@@ -15439,7 +16140,9 @@
       <c r="I28" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="J28" s="119"/>
+      <c r="J28" s="119">
+        <v>1.9</v>
+      </c>
       <c r="K28" s="12"/>
       <c r="L28" s="9"/>
     </row>
@@ -15455,7 +16158,9 @@
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
-      <c r="F29" s="113"/>
+      <c r="F29" s="113">
+        <v>2.4500000000000002</v>
+      </c>
       <c r="G29" s="9"/>
       <c r="H29" s="64" t="s">
         <v>3</v>
@@ -15463,7 +16168,9 @@
       <c r="I29" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="104"/>
+      <c r="J29" s="104">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="K29" s="12"/>
       <c r="L29" s="9"/>
     </row>
@@ -15479,7 +16186,9 @@
         <f t="shared" si="0"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="F30" s="113"/>
+      <c r="F30" s="113">
+        <v>2.52</v>
+      </c>
       <c r="G30" s="9"/>
       <c r="H30" s="63"/>
       <c r="I30" s="62"/>
@@ -15499,7 +16208,9 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="F31" s="113"/>
+      <c r="F31" s="113">
+        <v>2.66</v>
+      </c>
       <c r="G31" s="9"/>
       <c r="H31" s="55" t="s">
         <v>5</v>
@@ -15521,7 +16232,9 @@
         <f t="shared" si="0"/>
         <v>3.2000000000000006</v>
       </c>
-      <c r="F32" s="113"/>
+      <c r="F32" s="113">
+        <v>2.79</v>
+      </c>
       <c r="G32" s="9"/>
       <c r="H32" s="100" t="s">
         <v>23</v>
@@ -15529,7 +16242,10 @@
       <c r="I32" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="119"/>
+      <c r="J32" s="119">
+        <f>3*J25/2</f>
+        <v>5.6999999999999993</v>
+      </c>
       <c r="K32" s="12"/>
       <c r="L32" s="9"/>
     </row>
@@ -15545,7 +16261,9 @@
         <f t="shared" si="0"/>
         <v>3.4000000000000008</v>
       </c>
-      <c r="F33" s="113"/>
+      <c r="F33" s="113">
+        <v>3</v>
+      </c>
       <c r="G33" s="9"/>
       <c r="H33" s="66" t="s">
         <v>7</v>
@@ -15553,7 +16271,9 @@
       <c r="I33" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="J33" s="103"/>
+      <c r="J33" s="103">
+        <v>9.65</v>
+      </c>
       <c r="K33" s="12"/>
       <c r="L33" s="9"/>
     </row>
@@ -15569,7 +16289,9 @@
         <f t="shared" si="0"/>
         <v>3.600000000000001</v>
       </c>
-      <c r="F34" s="113"/>
+      <c r="F34" s="113">
+        <v>3.34</v>
+      </c>
       <c r="G34" s="9"/>
       <c r="H34" s="78"/>
       <c r="I34" s="78"/>
@@ -15589,7 +16311,9 @@
         <f t="shared" si="0"/>
         <v>3.8000000000000012</v>
       </c>
-      <c r="F35" s="113"/>
+      <c r="F35" s="113">
+        <v>5.99</v>
+      </c>
       <c r="G35" s="9"/>
       <c r="H35" s="55" t="s">
         <v>10</v>
@@ -15609,7 +16333,9 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="F36" s="113"/>
+      <c r="F36" s="113">
+        <v>8.18</v>
+      </c>
       <c r="G36" s="9"/>
       <c r="H36" s="101" t="s">
         <v>31</v>
@@ -15617,7 +16343,10 @@
       <c r="I36" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="119"/>
+      <c r="J36" s="119">
+        <f>5*J23/2</f>
+        <v>9.5</v>
+      </c>
     </row>
     <row r="37" spans="1:12" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
@@ -15631,7 +16360,9 @@
         <f t="shared" si="0"/>
         <v>4.2000000000000011</v>
       </c>
-      <c r="F37" s="113"/>
+      <c r="F37" s="113">
+        <v>8.57</v>
+      </c>
       <c r="G37" s="9"/>
       <c r="H37" s="79" t="s">
         <v>11</v>
@@ -15639,7 +16370,9 @@
       <c r="I37" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="J37" s="102"/>
+      <c r="J37" s="102">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="38" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
@@ -15653,7 +16386,9 @@
         <f t="shared" si="0"/>
         <v>4.4000000000000012</v>
       </c>
-      <c r="F38" s="113"/>
+      <c r="F38" s="113">
+        <v>8.81</v>
+      </c>
       <c r="G38" s="9"/>
       <c r="H38" s="78"/>
       <c r="I38" s="78"/>
@@ -15671,7 +16406,9 @@
         <f t="shared" si="0"/>
         <v>4.6000000000000014</v>
       </c>
-      <c r="F39" s="113"/>
+      <c r="F39" s="113">
+        <v>9.01</v>
+      </c>
       <c r="G39" s="9"/>
       <c r="H39" s="171" t="s">
         <v>54</v>
@@ -15691,7 +16428,9 @@
         <f t="shared" si="0"/>
         <v>4.8000000000000016</v>
       </c>
-      <c r="F40" s="113"/>
+      <c r="F40" s="113">
+        <v>9.15</v>
+      </c>
       <c r="G40" s="9"/>
       <c r="H40" s="174"/>
       <c r="I40" s="175"/>
@@ -15709,7 +16448,9 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000018</v>
       </c>
-      <c r="F41" s="113"/>
+      <c r="F41" s="113">
+        <v>9.27</v>
+      </c>
       <c r="G41" s="9"/>
       <c r="H41" s="177"/>
       <c r="I41" s="178"/>
@@ -15727,7 +16468,9 @@
         <f t="shared" si="0"/>
         <v>5.200000000000002</v>
       </c>
-      <c r="F42" s="113"/>
+      <c r="F42" s="113">
+        <v>9.39</v>
+      </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -15747,7 +16490,9 @@
         <f t="shared" si="0"/>
         <v>5.4000000000000021</v>
       </c>
-      <c r="F43" s="113"/>
+      <c r="F43" s="113">
+        <v>9.52</v>
+      </c>
       <c r="G43" s="9"/>
       <c r="H43" s="55" t="s">
         <v>33</v>
@@ -15769,9 +16514,13 @@
         <f t="shared" si="0"/>
         <v>5.6000000000000023</v>
       </c>
-      <c r="F44" s="113"/>
+      <c r="F44" s="113">
+        <v>9.6199999999999992</v>
+      </c>
       <c r="G44" s="9"/>
-      <c r="H44" s="180"/>
+      <c r="H44" s="180" t="s">
+        <v>20</v>
+      </c>
       <c r="I44" s="181"/>
       <c r="J44" s="181"/>
       <c r="K44" s="12"/>
@@ -15789,7 +16538,9 @@
         <f t="shared" si="0"/>
         <v>5.8000000000000025</v>
       </c>
-      <c r="F45" s="113"/>
+      <c r="F45" s="113">
+        <v>9.7200000000000006</v>
+      </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -15809,7 +16560,9 @@
         <f t="shared" si="0"/>
         <v>6.0000000000000027</v>
       </c>
-      <c r="F46" s="113"/>
+      <c r="F46" s="113">
+        <v>9.83</v>
+      </c>
       <c r="G46" s="9"/>
       <c r="H46" s="55" t="s">
         <v>93</v>
@@ -15831,9 +16584,14 @@
         <f t="shared" si="0"/>
         <v>6.2000000000000028</v>
       </c>
-      <c r="F47" s="113"/>
+      <c r="F47" s="113">
+        <v>9.9499999999999993</v>
+      </c>
       <c r="G47" s="9"/>
-      <c r="H47" s="180"/>
+      <c r="H47" s="180">
+        <f>(J33+J37)/2</f>
+        <v>10.725000000000001</v>
+      </c>
       <c r="I47" s="181"/>
       <c r="J47" s="181"/>
       <c r="K47" s="9"/>
@@ -15851,7 +16609,9 @@
         <f t="shared" si="0"/>
         <v>6.400000000000003</v>
       </c>
-      <c r="F48" s="113"/>
+      <c r="F48" s="113">
+        <v>10.06</v>
+      </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -15871,7 +16631,9 @@
         <f t="shared" si="0"/>
         <v>6.6000000000000032</v>
       </c>
-      <c r="F49" s="113"/>
+      <c r="F49" s="113">
+        <v>10.199999999999999</v>
+      </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -15891,7 +16653,9 @@
         <f t="shared" si="0"/>
         <v>6.8000000000000034</v>
       </c>
-      <c r="F50" s="113"/>
+      <c r="F50" s="113">
+        <v>10.31</v>
+      </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -15911,7 +16675,9 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000036</v>
       </c>
-      <c r="F51" s="113"/>
+      <c r="F51" s="113">
+        <v>10.46</v>
+      </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -15931,7 +16697,9 @@
         <f t="shared" si="0"/>
         <v>7.2000000000000037</v>
       </c>
-      <c r="F52" s="113"/>
+      <c r="F52" s="113">
+        <v>10.56</v>
+      </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -15951,7 +16719,9 @@
         <f t="shared" si="0"/>
         <v>7.4000000000000039</v>
       </c>
-      <c r="F53" s="113"/>
+      <c r="F53" s="113">
+        <v>10.67</v>
+      </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
@@ -15971,7 +16741,9 @@
         <f t="shared" si="0"/>
         <v>7.6000000000000041</v>
       </c>
-      <c r="F54" s="113"/>
+      <c r="F54" s="113">
+        <v>10.79</v>
+      </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -15991,7 +16763,9 @@
         <f t="shared" si="0"/>
         <v>7.8000000000000043</v>
       </c>
-      <c r="F55" s="113"/>
+      <c r="F55" s="113">
+        <v>10.89</v>
+      </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -16011,7 +16785,9 @@
         <f t="shared" si="0"/>
         <v>8.0000000000000036</v>
       </c>
-      <c r="F56" s="113"/>
+      <c r="F56" s="113">
+        <v>11</v>
+      </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
@@ -16031,7 +16807,9 @@
         <f t="shared" si="0"/>
         <v>8.2000000000000028</v>
       </c>
-      <c r="F57" s="113"/>
+      <c r="F57" s="113">
+        <v>11.08</v>
+      </c>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
@@ -16051,7 +16829,9 @@
         <f t="shared" si="0"/>
         <v>8.4000000000000021</v>
       </c>
-      <c r="F58" s="113"/>
+      <c r="F58" s="113">
+        <v>11.2</v>
+      </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -16071,7 +16851,9 @@
         <f t="shared" si="0"/>
         <v>8.6000000000000014</v>
       </c>
-      <c r="F59" s="113"/>
+      <c r="F59" s="113">
+        <v>11.31</v>
+      </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
@@ -16091,7 +16873,9 @@
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="F60" s="113"/>
+      <c r="F60" s="113">
+        <v>11.4</v>
+      </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
@@ -16111,7 +16895,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F61" s="113"/>
+      <c r="F61" s="113">
+        <v>11.51</v>
+      </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -16131,7 +16917,9 @@
         <f t="shared" si="0"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="F62" s="113"/>
+      <c r="F62" s="113">
+        <v>11.62</v>
+      </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
@@ -16151,7 +16939,9 @@
         <f t="shared" si="0"/>
         <v>9.3999999999999986</v>
       </c>
-      <c r="F63" s="113"/>
+      <c r="F63" s="113">
+        <v>11.72</v>
+      </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
@@ -16171,7 +16961,9 @@
         <f t="shared" si="0"/>
         <v>9.5999999999999979</v>
       </c>
-      <c r="F64" s="113"/>
+      <c r="F64" s="113">
+        <v>11.84</v>
+      </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
@@ -16191,7 +16983,9 @@
         <f t="shared" si="0"/>
         <v>9.7999999999999972</v>
       </c>
-      <c r="F65" s="113"/>
+      <c r="F65" s="113">
+        <v>11.96</v>
+      </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -16211,7 +17005,9 @@
         <f t="shared" si="0"/>
         <v>9.9999999999999964</v>
       </c>
-      <c r="F66" s="114"/>
+      <c r="F66" s="114">
+        <v>12.06</v>
+      </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
@@ -16231,7 +17027,9 @@
         <f t="shared" si="0"/>
         <v>10.199999999999996</v>
       </c>
-      <c r="F67" s="114"/>
+      <c r="F67" s="114">
+        <v>12.16</v>
+      </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
@@ -16251,7 +17049,9 @@
         <f t="shared" si="0"/>
         <v>10.399999999999995</v>
       </c>
-      <c r="F68" s="114"/>
+      <c r="F68" s="114">
+        <v>12.26</v>
+      </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
@@ -16271,7 +17071,9 @@
         <f t="shared" si="0"/>
         <v>10.599999999999994</v>
       </c>
-      <c r="F69" s="114"/>
+      <c r="F69" s="114">
+        <v>12.32</v>
+      </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
@@ -16291,7 +17093,9 @@
         <f t="shared" si="0"/>
         <v>10.799999999999994</v>
       </c>
-      <c r="F70" s="115"/>
+      <c r="F70" s="115">
+        <v>12.39</v>
+      </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
@@ -16311,7 +17115,9 @@
         <f t="shared" si="0"/>
         <v>10.999999999999993</v>
       </c>
-      <c r="F71" s="115"/>
+      <c r="F71" s="115">
+        <v>12.43</v>
+      </c>
       <c r="G71" s="5"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
@@ -16331,7 +17137,9 @@
         <f t="shared" si="0"/>
         <v>11.199999999999992</v>
       </c>
-      <c r="F72" s="115"/>
+      <c r="F72" s="115">
+        <v>12.48</v>
+      </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
@@ -16351,7 +17159,9 @@
         <f t="shared" si="0"/>
         <v>11.399999999999991</v>
       </c>
-      <c r="F73" s="115"/>
+      <c r="F73" s="115">
+        <v>12.52</v>
+      </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -16371,7 +17181,9 @@
         <f t="shared" si="0"/>
         <v>11.599999999999991</v>
       </c>
-      <c r="F74" s="115"/>
+      <c r="F74" s="115">
+        <v>12.56</v>
+      </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
@@ -16391,7 +17203,9 @@
         <f t="shared" si="0"/>
         <v>11.79999999999999</v>
       </c>
-      <c r="F75" s="115"/>
+      <c r="F75" s="115">
+        <v>12.6</v>
+      </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
@@ -16411,7 +17225,9 @@
         <f t="shared" si="0"/>
         <v>11.999999999999989</v>
       </c>
-      <c r="F76" s="115"/>
+      <c r="F76" s="115">
+        <v>12.63</v>
+      </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
@@ -16446,7 +17262,9 @@
         <f t="shared" si="0"/>
         <v>12.199999999999989</v>
       </c>
-      <c r="F77" s="115"/>
+      <c r="F77" s="115">
+        <v>12.67</v>
+      </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
@@ -16466,7 +17284,9 @@
         <f t="shared" si="0"/>
         <v>12.399999999999988</v>
       </c>
-      <c r="F78" s="115"/>
+      <c r="F78" s="115">
+        <v>12.69</v>
+      </c>
       <c r="G78" s="9"/>
       <c r="H78" s="5"/>
       <c r="I78" s="9"/>
@@ -16486,7 +17306,9 @@
         <f t="shared" si="0"/>
         <v>12.599999999999987</v>
       </c>
-      <c r="F79" s="115"/>
+      <c r="F79" s="115">
+        <v>12.72</v>
+      </c>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
@@ -16506,7 +17328,9 @@
         <f t="shared" si="0"/>
         <v>12.799999999999986</v>
       </c>
-      <c r="F80" s="115"/>
+      <c r="F80" s="115">
+        <v>12.74</v>
+      </c>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
@@ -16526,7 +17350,9 @@
         <f t="shared" si="0"/>
         <v>12.999999999999986</v>
       </c>
-      <c r="F81" s="115"/>
+      <c r="F81" s="115">
+        <v>12.77</v>
+      </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
@@ -16546,7 +17372,9 @@
         <f t="shared" si="1"/>
         <v>13.199999999999985</v>
       </c>
-      <c r="F82" s="115"/>
+      <c r="F82" s="115">
+        <v>12.8</v>
+      </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
@@ -16566,7 +17394,9 @@
         <f t="shared" si="1"/>
         <v>13.399999999999984</v>
       </c>
-      <c r="F83" s="115"/>
+      <c r="F83" s="115">
+        <v>12.82</v>
+      </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
@@ -16586,7 +17416,9 @@
         <f t="shared" si="1"/>
         <v>13.599999999999984</v>
       </c>
-      <c r="F84" s="115"/>
+      <c r="F84" s="115">
+        <v>12.86</v>
+      </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
@@ -16606,7 +17438,9 @@
         <f t="shared" si="1"/>
         <v>13.799999999999983</v>
       </c>
-      <c r="F85" s="115"/>
+      <c r="F85" s="115">
+        <v>12.87</v>
+      </c>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
@@ -16626,7 +17460,9 @@
         <f t="shared" si="1"/>
         <v>13.999999999999982</v>
       </c>
-      <c r="F86" s="115"/>
+      <c r="F86" s="115">
+        <v>12.89</v>
+      </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
@@ -16646,7 +17482,9 @@
         <f t="shared" si="1"/>
         <v>14.199999999999982</v>
       </c>
-      <c r="F87" s="115"/>
+      <c r="F87" s="115">
+        <v>12.91</v>
+      </c>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
@@ -16666,7 +17504,9 @@
         <f t="shared" si="1"/>
         <v>14.399999999999981</v>
       </c>
-      <c r="F88" s="115"/>
+      <c r="F88" s="115">
+        <v>12.92</v>
+      </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
@@ -16686,7 +17526,9 @@
         <f t="shared" si="1"/>
         <v>14.59999999999998</v>
       </c>
-      <c r="F89" s="115"/>
+      <c r="F89" s="115">
+        <v>12.96</v>
+      </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
@@ -16706,7 +17548,9 @@
         <f t="shared" si="1"/>
         <v>14.799999999999979</v>
       </c>
-      <c r="F90" s="115"/>
+      <c r="F90" s="115">
+        <v>12.97</v>
+      </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
@@ -16724,7 +17568,9 @@
         <f t="shared" si="1"/>
         <v>14.999999999999979</v>
       </c>
-      <c r="F91" s="115"/>
+      <c r="F91" s="115">
+        <v>12.98</v>
+      </c>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -16740,7 +17586,9 @@
         <f t="shared" si="2"/>
         <v>15.199999999999978</v>
       </c>
-      <c r="F92" s="115"/>
+      <c r="F92" s="115">
+        <v>12.99</v>
+      </c>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -16756,7 +17604,9 @@
         <f t="shared" si="3"/>
         <v>15.399999999999977</v>
       </c>
-      <c r="F93" s="115"/>
+      <c r="F93" s="115">
+        <v>13</v>
+      </c>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -16950,7 +17800,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
